--- a/wdc_libs/wdc-xlsx-converter/dataset-example.xlsx
+++ b/wdc_libs/wdc-xlsx-converter/dataset-example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="552">
   <si>
     <t>Country Name</t>
   </si>
@@ -1674,6 +1674,9 @@
   </si>
   <si>
     <t>value.ua</t>
+  </si>
+  <si>
+    <t>https://www.whitehouse.gov/sites/default/files/immigration/icon_gdp_1.png</t>
   </si>
 </sst>
 </file>
@@ -2313,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,7 +2325,7 @@
     <col min="1" max="1" width="30.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="5" customWidth="1"/>
     <col min="7" max="16384" width="26.28515625" style="5"/>
@@ -2388,6 +2391,12 @@
       </c>
       <c r="C4" s="5" t="s">
         <v>531</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wdc_libs/wdc-xlsx-converter/dataset-example.xlsx
+++ b/wdc_libs/wdc-xlsx-converter/dataset-example.xlsx
@@ -1655,9 +1655,6 @@
     <t>Світові індикатори розвитку</t>
   </si>
   <si>
-    <t>value.type</t>
-  </si>
-  <si>
     <t>value.label</t>
   </si>
   <si>
@@ -1677,6 +1674,9 @@
   </si>
   <si>
     <t>https://www.whitehouse.gov/sites/default/files/immigration/icon_gdp_1.png</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,24 +2331,24 @@
     <col min="7" max="16384" width="26.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>547</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>525</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">

--- a/wdc_libs/wdc-xlsx-converter/dataset-example.xlsx
+++ b/wdc_libs/wdc-xlsx-converter/dataset-example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="553">
   <si>
     <t>Country Name</t>
   </si>
@@ -1550,9 +1550,6 @@
     <t xml:space="preserve">Micronesia  Fed  Sts </t>
   </si>
   <si>
-    <t xml:space="preserve">   GDPpc20102013</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indicator Code </t>
   </si>
   <si>
@@ -1562,9 +1559,6 @@
     <t>dataset.commit.note</t>
   </si>
   <si>
-    <t>dataset.commit.date</t>
-  </si>
-  <si>
     <t>Add commit info</t>
   </si>
   <si>
@@ -1583,9 +1577,6 @@
     <t>#ua</t>
   </si>
   <si>
-    <t>dataset.commit.status</t>
-  </si>
-  <si>
     <t>HEAD</t>
   </si>
   <si>
@@ -1677,13 +1668,25 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>dataset.commit.HEAD</t>
+  </si>
+  <si>
+    <t>dataset.commit.createdAt</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>3a37ea80-93a8-11e5-b62f-dfcea48fc8d9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,6 +1710,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1742,10 +1752,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1781,9 +1792,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2084,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,25 +2119,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>509</v>
+      <c r="B2" s="14" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="9">
         <v>1112322212</v>
@@ -2129,30 +2145,35 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B5" s="9"/>
+        <v>521</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="9"/>
+        <v>550</v>
+      </c>
+      <c r="B7" s="13">
+        <f ca="1">TODAY()</f>
+        <v>42333</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,18 +2186,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,10 +2218,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,10 +2234,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,10 +2250,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2301,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2336,19 +2357,19 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>544</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2359,10 +2380,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>30</v>
@@ -2373,46 +2394,46 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2423,7 +2444,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -2461,26 +2482,26 @@
         <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -2491,7 +2512,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -2502,18 +2523,18 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>31</v>
@@ -2524,29 +2545,29 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2557,7 +2578,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -2568,7 +2589,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>

--- a/wdc_libs/wdc-xlsx-converter/dataset-example.xlsx
+++ b/wdc_libs/wdc-xlsx-converter/dataset-example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4562" uniqueCount="563">
   <si>
     <t>Country Name</t>
   </si>
@@ -1658,9 +1658,6 @@
     <t>value.ua</t>
   </si>
   <si>
-    <t>https://www.whitehouse.gov/sites/default/files/immigration/icon_gdp_1.png</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -1698,13 +1695,28 @@
   </si>
   <si>
     <t>#GDP, #WDI/#EC/#GDP, #EC/#GDP, #WDI/#GDP</t>
+  </si>
+  <si>
+    <t>http://img2.wikia.nocookie.net/__cb20131223004217/halofanon/images/4/41/HF_Icon_Speciality_Economy.png</t>
+  </si>
+  <si>
+    <t>#EC_NOTE</t>
+  </si>
+  <si>
+    <t>Cукупність всіх чинників (матеріальних і духовних), які є у розпорядженні людини чи людської спільноти (господаря) і використання яких дозволяє отримувати засоби задоволення потреб.</t>
+  </si>
+  <si>
+    <t>The combination of all factors (material and spiritual) that are available to the person or the human community (host) and the use of tools which enables needs.</t>
+  </si>
+  <si>
+    <t>http://www.pnglogo.com/wp-content/uploads/2015/10/Economy-Rise-PNG-02088.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,6 +1748,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1785,7 +1804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1828,6 +1847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2132,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2200,7 @@
         <v>519</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,16 +2213,16 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B7" s="13">
         <f ca="1">TODAY()</f>
-        <v>42336</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>516</v>
@@ -2221,7 +2241,7 @@
         <v>529</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2265,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,7 +2399,7 @@
     <col min="2" max="2" width="10.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="54.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="5" customWidth="1"/>
     <col min="7" max="16384" width="26.28515625" style="5"/>
   </cols>
@@ -2389,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>539</v>
@@ -2426,7 +2446,7 @@
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
@@ -2434,8 +2454,11 @@
       <c r="C3" s="5" t="s">
         <v>525</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="E3" s="5" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2452,7 +2475,7 @@
         <v>520</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,9 +2523,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2633,30 +2656,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>557</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
